--- a/Metadata/result_default_numQuery.xlsx
+++ b/Metadata/result_default_numQuery.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,12 +943,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GAS_Q1</t>
+          <t>FC_Q1</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16.59</v>
+        <v>26.112</v>
       </c>
       <c r="G14" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>45.4</v>
+        <v>113</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="15">
@@ -981,12 +981,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GAS_Q1</t>
+          <t>FC_Q1</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -998,19 +998,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46.676</v>
+        <v>3885.412</v>
       </c>
       <c r="G15" t="n">
-        <v>8.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="H15" t="n">
-        <v>44.6</v>
+        <v>103.6</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="16">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GAS_Q1</t>
+          <t>FC_Q1</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1036,19 +1036,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50.90599999999999</v>
+        <v>5311.325999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>6.76</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="17">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GAS_Q10</t>
+          <t>FC_Q10</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1074,19 +1074,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>72.53200000000001</v>
+        <v>474.814</v>
       </c>
       <c r="G17" t="n">
-        <v>11.38</v>
+        <v>19.8</v>
       </c>
       <c r="H17" t="n">
-        <v>59.6</v>
+        <v>115.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GAS_Q10</t>
+          <t>FC_Q10</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1112,19 +1112,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4352.4</v>
+        <v>6523.508</v>
       </c>
       <c r="G18" t="n">
-        <v>109.42</v>
+        <v>104.2</v>
       </c>
       <c r="H18" t="n">
-        <v>197</v>
+        <v>194.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GAS_Q10</t>
+          <t>FC_Q10</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5015.318000000001</v>
+        <v>8402.860000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>95.62</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>184.8</v>
+        <v>188.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GAS_Q100</t>
+          <t>FC_Q100</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>489.5</v>
+        <v>3791.454</v>
       </c>
       <c r="G20" t="n">
-        <v>18.32</v>
+        <v>20.8</v>
       </c>
       <c r="H20" t="n">
-        <v>61.8</v>
+        <v>117.4</v>
       </c>
       <c r="I20" t="n">
-        <v>12.2</v>
+        <v>361.8</v>
       </c>
       <c r="J20" t="n">
-        <v>20.4</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="21">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GAS_Q100</t>
+          <t>FC_Q100</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>35312.838</v>
+        <v>42392.91</v>
       </c>
       <c r="G21" t="n">
-        <v>343.3</v>
+        <v>226.2</v>
       </c>
       <c r="H21" t="n">
-        <v>461.8</v>
+        <v>317.8</v>
       </c>
       <c r="I21" t="n">
-        <v>12.8</v>
+        <v>361.8</v>
       </c>
       <c r="J21" t="n">
-        <v>22</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="22">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GAS_Q100</t>
+          <t>FC_Q100</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>37319.99000000001</v>
+        <v>45289.2</v>
       </c>
       <c r="G22" t="n">
-        <v>286.04</v>
+        <v>170.4</v>
       </c>
       <c r="H22" t="n">
-        <v>405</v>
+        <v>262</v>
       </c>
       <c r="I22" t="n">
-        <v>12.2</v>
+        <v>361.8</v>
       </c>
       <c r="J22" t="n">
-        <v>21.4</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="23">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GAS_Q1000</t>
+          <t>FC_Q1000</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1302,19 +1302,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3124.39</v>
+        <v>12433.002</v>
       </c>
       <c r="G23" t="n">
-        <v>21.48</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>63.2</v>
+        <v>120.4</v>
       </c>
       <c r="I23" t="n">
-        <v>49.2</v>
+        <v>1157.2</v>
       </c>
       <c r="J23" t="n">
-        <v>215.4</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="24">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAS_Q1000</t>
+          <t>FC_Q1000</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1340,19 +1340,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>315200.55</v>
+        <v>430685.748</v>
       </c>
       <c r="G24" t="n">
-        <v>1003</v>
+        <v>773.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1079</v>
+        <v>855</v>
       </c>
       <c r="I24" t="n">
-        <v>103</v>
+        <v>1157.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3249</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="25">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>FC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GAS_Q1000</t>
+          <t>FC_Q1000</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>300578.39</v>
+        <v>448276.088</v>
       </c>
       <c r="G25" t="n">
-        <v>466</v>
+        <v>237.4</v>
       </c>
       <c r="H25" t="n">
-        <v>559</v>
+        <v>322.2</v>
       </c>
       <c r="I25" t="n">
-        <v>103</v>
+        <v>1157.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3249</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="26">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STK_Q1</t>
+          <t>GAS_Q1</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1416,19 +1416,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.545</v>
+        <v>16.59</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="H26" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STK_Q1</t>
+          <t>GAS_Q1</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>41.068</v>
+        <v>46.676</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>44.6</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>STK_Q1</t>
+          <t>GAS_Q1</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1492,19 +1492,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50.536</v>
+        <v>50.90599999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>6.76</v>
       </c>
       <c r="H28" t="n">
-        <v>10.4</v>
+        <v>43</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>STK_Q10</t>
+          <t>GAS_Q10</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1530,19 +1530,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.6975</v>
+        <v>72.53200000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>3.975</v>
+        <v>11.38</v>
       </c>
       <c r="H29" t="n">
-        <v>42.5</v>
+        <v>59.6</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>1.2</v>
       </c>
       <c r="J29" t="n">
-        <v>27.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>STK_Q10</t>
+          <t>GAS_Q10</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1568,19 +1568,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1412.816</v>
+        <v>4352.4</v>
       </c>
       <c r="G30" t="n">
-        <v>83.45999999999999</v>
+        <v>109.42</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4</v>
+        <v>197</v>
       </c>
       <c r="I30" t="n">
-        <v>15.4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>STK_Q10</t>
+          <t>GAS_Q10</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1548.382</v>
+        <v>5015.318000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>57.27999999999999</v>
+        <v>95.62</v>
       </c>
       <c r="H31" t="n">
-        <v>105.8</v>
+        <v>184.8</v>
       </c>
       <c r="I31" t="n">
-        <v>15.4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>STK_Q100</t>
+          <t>GAS_Q100</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1644,19 +1644,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22.94</v>
+        <v>489.5</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>18.32</v>
       </c>
       <c r="H32" t="n">
-        <v>45.5</v>
+        <v>61.8</v>
       </c>
       <c r="I32" t="n">
-        <v>93.5</v>
+        <v>12.2</v>
       </c>
       <c r="J32" t="n">
-        <v>285.5</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="33">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>STK_Q100</t>
+          <t>GAS_Q100</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1682,19 +1682,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14782.172</v>
+        <v>35312.838</v>
       </c>
       <c r="G33" t="n">
-        <v>179.82</v>
+        <v>343.3</v>
       </c>
       <c r="H33" t="n">
-        <v>213.6</v>
+        <v>461.8</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2</v>
+        <v>12.8</v>
       </c>
       <c r="J33" t="n">
-        <v>295.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>STK_Q100</t>
+          <t>GAS_Q100</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14098.594</v>
+        <v>37319.99000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>121.62</v>
+        <v>286.04</v>
       </c>
       <c r="H34" t="n">
-        <v>172.8</v>
+        <v>405</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2</v>
+        <v>12.2</v>
       </c>
       <c r="J34" t="n">
-        <v>295.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="35">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>STK_Q1000</t>
+          <t>GAS_Q1000</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1758,19 +1758,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>139.365</v>
+        <v>3124.39</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>21.48</v>
       </c>
       <c r="H35" t="n">
-        <v>43.5</v>
+        <v>63.2</v>
       </c>
       <c r="I35" t="n">
-        <v>259</v>
+        <v>49.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2771.25</v>
+        <v>215.4</v>
       </c>
     </row>
     <row r="36">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>STK_Q1000</t>
+          <t>GAS_Q1000</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>76605.5</v>
+        <v>315200.55</v>
       </c>
       <c r="G36" t="n">
-        <v>681</v>
+        <v>1003</v>
       </c>
       <c r="H36" t="n">
-        <v>713</v>
+        <v>1079</v>
       </c>
       <c r="I36" t="n">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="J36" t="n">
-        <v>2825</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="37">
@@ -1817,36 +1817,1404 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GAS_Q1000</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>300578.39</v>
+      </c>
+      <c r="G37" t="n">
+        <v>466</v>
+      </c>
+      <c r="H37" t="n">
+        <v>559</v>
+      </c>
+      <c r="I37" t="n">
+        <v>103</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>HPC_Q1</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>8.401999999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>HPC_Q1</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>518.29</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HPC_Q1</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>374.246</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HPC_Q10</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>51.404</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>101</v>
+      </c>
+      <c r="I41" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>HPC_Q10</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1276.918</v>
+      </c>
+      <c r="G42" t="n">
+        <v>70</v>
+      </c>
+      <c r="H42" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>HPC_Q10</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1298.322</v>
+      </c>
+      <c r="G43" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>141</v>
+      </c>
+      <c r="I43" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HPC_Q100</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>402.794</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>102</v>
+      </c>
+      <c r="I44" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>HPC_Q100</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>11661.632</v>
+      </c>
+      <c r="G45" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>HPC_Q100</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>10849.058</v>
+      </c>
+      <c r="G46" t="n">
+        <v>104</v>
+      </c>
+      <c r="H46" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>460.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HPC_Q1000</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2227.568</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>103</v>
+      </c>
+      <c r="I47" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3728.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HPC_Q1000</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>118128.07</v>
+      </c>
+      <c r="G48" t="n">
+        <v>701.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>791.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3728.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HPC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HPC_Q1000</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>112035.154</v>
+      </c>
+      <c r="G49" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>256.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3728.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>STK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>STK_Q1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>STK_Q1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>41.068</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>13</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>STK_Q1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>50.536</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>STK_Q10</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3.6975</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="H53" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>STK_Q10</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1412.816</v>
+      </c>
+      <c r="G54" t="n">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>STK_Q10</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1548.382</v>
+      </c>
+      <c r="G55" t="n">
+        <v>57.27999999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>STK_Q100</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>STK_Q100</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>14782.172</v>
+      </c>
+      <c r="G57" t="n">
+        <v>179.82</v>
+      </c>
+      <c r="H57" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>295.6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>STK_Q100</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>14098.594</v>
+      </c>
+      <c r="G58" t="n">
+        <v>121.62</v>
+      </c>
+      <c r="H58" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>295.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>STK_Q1000</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>139.365</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>259</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2771.25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>STK_Q1000</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>76605.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>681</v>
+      </c>
+      <c r="H60" t="n">
+        <v>713</v>
+      </c>
+      <c r="I60" t="n">
+        <v>269</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>STK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>STK_Q1000</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>pMCSKY</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F61" t="n">
         <v>74777.8</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G61" t="n">
         <v>144.5</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H61" t="n">
         <v>555</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I61" t="n">
         <v>269</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J61" t="n">
         <v>2825</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TAO_Q1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.682</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>96</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TAO_Q1</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1989.496</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>99</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TAO_Q1</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2723.538</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TAO_Q10</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>21.524</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="I65" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TAO_Q10</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3779.5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TAO_Q10</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4290.978</v>
+      </c>
+      <c r="G67" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TAO_Q100</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>158.564</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>175</v>
+      </c>
+      <c r="J68" t="n">
+        <v>930.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TAO_Q100</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>35018.694</v>
+      </c>
+      <c r="G69" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>343</v>
+      </c>
+      <c r="I69" t="n">
+        <v>175</v>
+      </c>
+      <c r="J69" t="n">
+        <v>930.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>TAO_Q100</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>36905.27800000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>283.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>175</v>
+      </c>
+      <c r="J70" t="n">
+        <v>930.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TAO_Q1000</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MDUAL</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1042.93</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>99</v>
+      </c>
+      <c r="I71" t="n">
+        <v>259</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10665.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TAO_Q1000</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>274721.51</v>
+      </c>
+      <c r="G72" t="n">
+        <v>787</v>
+      </c>
+      <c r="H72" t="n">
+        <v>877.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>259</v>
+      </c>
+      <c r="J72" t="n">
+        <v>10665.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TAO_Q1000</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>pMCSKY</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>288450.388</v>
+      </c>
+      <c r="G73" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>259</v>
+      </c>
+      <c r="J73" t="n">
+        <v>10665.8</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata/result_default_numQuery.xlsx
+++ b/Metadata/result_default_numQuery.xlsx
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24.16</v>
+        <v>20.81</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="H2" t="n">
-        <v>111</v>
+        <v>83.66666666666667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>55.07</v>
+        <v>54.79833333333332</v>
       </c>
       <c r="G3" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>59.48</v>
+        <v>58.04666666666667</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
